--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/031_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/031_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Rc6c9eaba46b74583"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R801c374ab59145e8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/031_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/031_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R801c374ab59145e8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Rf4292910d4314f50"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/031_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/031_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Rf4292910d4314f50"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R5001bcfec4174e9d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/031_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/031_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R5001bcfec4174e9d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Reeba67a5fb5540f8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/031_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/031_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Reeba67a5fb5540f8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Rb6a959385b1347e6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/031_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/031_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Rb6a959385b1347e6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Rd5417b52e5d243f0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/031_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/031_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Rd5417b52e5d243f0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Rc94e96aa807448a5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/031_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/031_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Rc94e96aa807448a5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Rf5b68b8c0864450d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/031_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/031_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Rf5b68b8c0864450d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R3709261c47454c8e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/031_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/031_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R3709261c47454c8e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R4dbe0410128441d5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/031_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/031_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R4dbe0410128441d5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R4ab24ed8523c4fa1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -29,13 +29,13 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="18"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/031_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/031_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R4ab24ed8523c4fa1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R434fee474e7d4778"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -29,13 +29,13 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="18"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/031_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/031_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R434fee474e7d4778"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R98745513cc2641a1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
